--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27950" windowHeight="12550"/>
   </bookViews>
   <sheets>
-    <sheet name="2401 CQF ver.240129" sheetId="3" r:id="rId1"/>
+    <sheet name="2401 CQF ver.240204" sheetId="3" r:id="rId1"/>
     <sheet name="public holiday" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1498,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1547,10 +1547,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1955,7 +1958,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2143,8 +2146,8 @@
       <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="14">
-        <v>45329</v>
+      <c r="G8" s="18">
+        <v>45328</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -2165,8 +2168,8 @@
       <c r="F9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="14">
-        <v>45330</v>
+      <c r="G9" s="18">
+        <v>45329</v>
       </c>
       <c r="H9" s="17"/>
     </row>
@@ -2215,20 +2218,20 @@
       <c r="H11" s="17"/>
     </row>
     <row r="12" ht="26" spans="1:8">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="14">
@@ -2237,16 +2240,16 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
@@ -2451,20 +2454,20 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" ht="26" spans="1:8">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="19" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="14">
@@ -2473,16 +2476,16 @@
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
@@ -2506,7 +2509,7 @@
       <c r="G25" s="14">
         <v>45365</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2530,7 +2533,7 @@
       <c r="G26" s="14">
         <v>45369</v>
       </c>
-      <c r="H26" s="24"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="12" t="s">
@@ -2552,7 +2555,7 @@
       <c r="G27" s="14">
         <v>45370</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" ht="26" spans="1:8">
       <c r="A28" s="12" t="s">
@@ -2574,7 +2577,7 @@
       <c r="G28" s="14">
         <v>45372</v>
       </c>
-      <c r="H28" s="24"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="12" t="s">
@@ -2596,7 +2599,7 @@
       <c r="G29" s="14">
         <v>45376</v>
       </c>
-      <c r="H29" s="24"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" ht="26" spans="1:8">
       <c r="A30" s="12" t="s">
@@ -2618,7 +2621,7 @@
       <c r="G30" s="14">
         <v>45377</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="12" t="s">
@@ -2640,7 +2643,7 @@
       <c r="G31" s="14">
         <v>45379</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="12" t="s">
@@ -2662,7 +2665,7 @@
       <c r="G32" s="14">
         <v>45383</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" ht="26" spans="1:8">
       <c r="A33" s="12" t="s">
@@ -2684,7 +2687,7 @@
       <c r="G33" s="14">
         <v>45384</v>
       </c>
-      <c r="H33" s="24"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="12" t="s">
@@ -2706,7 +2709,7 @@
       <c r="G34" s="14">
         <v>45385</v>
       </c>
-      <c r="H34" s="24"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="12" t="s">
@@ -2728,7 +2731,7 @@
       <c r="G35" s="14">
         <v>45390</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="12" t="s">
@@ -2750,7 +2753,7 @@
       <c r="G36" s="14">
         <v>45391</v>
       </c>
-      <c r="H36" s="24"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" ht="26" spans="1:8">
       <c r="A37" s="12" t="s">
@@ -2772,7 +2775,7 @@
       <c r="G37" s="14">
         <v>45393</v>
       </c>
-      <c r="H37" s="24"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" ht="26" spans="1:8">
       <c r="A38" s="12" t="s">
@@ -2794,7 +2797,7 @@
       <c r="G38" s="14">
         <v>45394</v>
       </c>
-      <c r="H38" s="24"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12" t="s">
@@ -2816,41 +2819,41 @@
       <c r="G39" s="14">
         <v>45397</v>
       </c>
-      <c r="H39" s="24"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="19" t="s">
         <v>102</v>
       </c>
       <c r="G40" s="14">
         <v>45398</v>
       </c>
-      <c r="H40" s="24"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
@@ -2871,7 +2874,7 @@
       <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="26">
         <v>45400</v>
       </c>
       <c r="H42" s="17" t="s">
@@ -2895,7 +2898,7 @@
       <c r="F43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="26">
         <v>45404</v>
       </c>
       <c r="H43" s="17"/>
@@ -2917,7 +2920,7 @@
       <c r="F44" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="26">
         <v>45407</v>
       </c>
       <c r="H44" s="17"/>
@@ -2939,7 +2942,7 @@
       <c r="F45" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="26">
         <v>45411</v>
       </c>
       <c r="H45" s="17"/>
@@ -2961,7 +2964,7 @@
       <c r="F46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="26">
         <v>45412</v>
       </c>
       <c r="H46" s="17"/>
@@ -2983,7 +2986,7 @@
       <c r="F47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="26">
         <v>45418</v>
       </c>
       <c r="H47" s="17"/>
@@ -3005,7 +3008,7 @@
       <c r="F48" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="26">
         <v>45419</v>
       </c>
       <c r="H48" s="17"/>
@@ -3027,7 +3030,7 @@
       <c r="F49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="26">
         <v>45421</v>
       </c>
       <c r="H49" s="17"/>
@@ -3049,44 +3052,44 @@
       <c r="F50" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="26">
         <v>45425</v>
       </c>
       <c r="H50" s="17"/>
     </row>
     <row r="51" ht="26" spans="1:8">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="26">
         <v>45426</v>
       </c>
       <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
@@ -3107,7 +3110,7 @@
       <c r="F53" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="26">
         <v>45428</v>
       </c>
       <c r="H53" s="17" t="s">
@@ -3131,7 +3134,7 @@
       <c r="F54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="26">
         <v>45430</v>
       </c>
       <c r="H54" s="17"/>
@@ -3153,7 +3156,7 @@
       <c r="F55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="26">
         <v>45431</v>
       </c>
       <c r="H55" s="17"/>
@@ -3175,7 +3178,7 @@
       <c r="F56" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="26">
         <v>45436</v>
       </c>
       <c r="H56" s="17"/>
@@ -3197,7 +3200,7 @@
       <c r="F57" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="26">
         <v>45437</v>
       </c>
       <c r="H57" s="17"/>
@@ -3219,7 +3222,7 @@
       <c r="F58" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="26">
         <v>45439</v>
       </c>
       <c r="H58" s="17"/>
@@ -3241,7 +3244,7 @@
       <c r="F59" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="26">
         <v>45442</v>
       </c>
       <c r="H59" s="17"/>
@@ -3263,7 +3266,7 @@
       <c r="F60" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="26">
         <v>45443</v>
       </c>
       <c r="H60" s="17"/>
@@ -3285,7 +3288,7 @@
       <c r="F61" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="26">
         <v>45445</v>
       </c>
       <c r="H61" s="17"/>
@@ -3307,7 +3310,7 @@
       <c r="F62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="26">
         <v>45448</v>
       </c>
       <c r="H62" s="17"/>
@@ -3329,7 +3332,7 @@
       <c r="F63" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="26">
         <v>45450</v>
       </c>
       <c r="H63" s="17"/>
@@ -3351,44 +3354,44 @@
       <c r="F64" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="26">
         <v>45452</v>
       </c>
       <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="26">
         <v>45456</v>
       </c>
       <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
@@ -3409,10 +3412,10 @@
       <c r="F67" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="26">
         <v>45460</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H67" s="27" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3433,10 +3436,10 @@
       <c r="F68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="26">
         <v>45461</v>
       </c>
-      <c r="H68" s="26"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="12" t="s">
@@ -3455,10 +3458,10 @@
       <c r="F69" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G69" s="26">
         <v>45463</v>
       </c>
-      <c r="H69" s="26"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="12" t="s">
@@ -3477,10 +3480,10 @@
       <c r="F70" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="26">
         <v>45467</v>
       </c>
-      <c r="H70" s="26"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="12" t="s">
@@ -3499,10 +3502,10 @@
       <c r="F71" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G71" s="26">
         <v>45468</v>
       </c>
-      <c r="H71" s="26"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" ht="26" spans="1:8">
       <c r="A72" s="12" t="s">
@@ -3521,10 +3524,10 @@
       <c r="F72" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="26">
         <v>45470</v>
       </c>
-      <c r="H72" s="26"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="12" t="s">
@@ -3543,10 +3546,10 @@
       <c r="F73" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="26">
         <v>45474</v>
       </c>
-      <c r="H73" s="26"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="12" t="s">
@@ -3565,10 +3568,10 @@
       <c r="F74" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="26">
         <v>45475</v>
       </c>
-      <c r="H74" s="26"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="12" t="s">
@@ -3587,10 +3590,10 @@
       <c r="F75" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="26">
         <v>45477</v>
       </c>
-      <c r="H75" s="26"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" ht="26" spans="1:8">
       <c r="A76" s="12" t="s">
@@ -3609,10 +3612,10 @@
       <c r="F76" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G76" s="26">
         <v>45481</v>
       </c>
-      <c r="H76" s="26"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="12" t="s">
@@ -3631,10 +3634,10 @@
       <c r="F77" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G77" s="26">
         <v>45482</v>
       </c>
-      <c r="H77" s="26"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="12" t="s">
@@ -3653,10 +3656,10 @@
       <c r="F78" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G78" s="26">
         <v>45484</v>
       </c>
-      <c r="H78" s="26"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="12" t="s">
@@ -3675,10 +3678,10 @@
       <c r="F79" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="26">
         <v>45485</v>
       </c>
-      <c r="H79" s="26"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="12" t="s">
@@ -3697,10 +3700,10 @@
       <c r="F80" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="26">
         <v>45488</v>
       </c>
-      <c r="H80" s="26"/>
+      <c r="H80" s="27"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="12" t="s">
@@ -3719,10 +3722,10 @@
       <c r="F81" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G81" s="26">
         <v>45489</v>
       </c>
-      <c r="H81" s="26"/>
+      <c r="H81" s="27"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="12" t="s">
@@ -3741,10 +3744,10 @@
       <c r="F82" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G82" s="25">
+      <c r="G82" s="26">
         <v>45491</v>
       </c>
-      <c r="H82" s="26"/>
+      <c r="H82" s="27"/>
     </row>
     <row r="83" ht="26" spans="1:8">
       <c r="A83" s="12" t="s">
@@ -3763,10 +3766,10 @@
       <c r="F83" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G83" s="25">
+      <c r="G83" s="26">
         <v>45492</v>
       </c>
-      <c r="H83" s="26"/>
+      <c r="H83" s="27"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="12" t="s">
@@ -3785,10 +3788,10 @@
       <c r="F84" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G84" s="25">
+      <c r="G84" s="26">
         <v>45495</v>
       </c>
-      <c r="H84" s="26"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85" ht="26" spans="1:8">
       <c r="A85" s="12" t="s">
@@ -3807,10 +3810,10 @@
       <c r="F85" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G85" s="26">
         <v>45496</v>
       </c>
-      <c r="H85" s="26"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="12" t="s">
@@ -3829,10 +3832,10 @@
       <c r="F86" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="25">
+      <c r="G86" s="26">
         <v>45498</v>
       </c>
-      <c r="H86" s="26"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="12" t="s">
@@ -3851,10 +3854,10 @@
       <c r="F87" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G87" s="25">
+      <c r="G87" s="26">
         <v>45499</v>
       </c>
-      <c r="H87" s="26"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="12" t="s">
@@ -3873,10 +3876,10 @@
       <c r="F88" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G88" s="25">
+      <c r="G88" s="26">
         <v>45502</v>
       </c>
-      <c r="H88" s="26"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="12" t="s">
@@ -3891,14 +3894,14 @@
       <c r="D89" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E89" s="27"/>
+      <c r="E89" s="28"/>
       <c r="F89" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G89" s="26">
         <v>45503</v>
       </c>
-      <c r="H89" s="28"/>
+      <c r="H89" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3932,8 +3935,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -4,26 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12550"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="2401 CQF ver.240204" sheetId="3" r:id="rId1"/>
     <sheet name="public holiday" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -663,7 +650,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -709,6 +696,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -722,6 +737,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,21 +784,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,28 +834,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,13 +861,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +927,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,18 +975,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -958,31 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,19 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,12 +1030,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,6 +1241,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1282,21 +1284,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,148 +1340,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1592,52 +1579,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1958,7 +1945,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2338,8 +2325,8 @@
       <c r="F17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="14">
-        <v>45349</v>
+      <c r="G17" s="18">
+        <v>45352</v>
       </c>
       <c r="H17" s="17"/>
     </row>
@@ -2360,8 +2347,8 @@
       <c r="F18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="14">
-        <v>45351</v>
+      <c r="G18" s="18">
+        <v>45354</v>
       </c>
       <c r="H18" s="17"/>
     </row>

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -4,26 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12550"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="2401 CQF ver.240304" sheetId="3" r:id="rId1"/>
     <sheet name="public holiday" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -673,7 +660,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -719,6 +706,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -732,6 +747,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,21 +794,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,28 +844,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,13 +871,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,19 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,18 +985,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -968,31 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,19 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,12 +1040,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,6 +1251,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1292,21 +1294,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,148 +1350,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,9 +1574,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1609,6 +1593,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1623,52 +1610,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1993,8 +1980,8 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2309,7 +2296,7 @@
       <c r="G14" s="25">
         <v>45343</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2333,7 +2320,7 @@
       <c r="G15" s="25">
         <v>45344</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="13" t="s">
@@ -2352,10 +2339,10 @@
       <c r="F16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>45348</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="26" spans="1:8">
       <c r="A17" s="13" t="s">
@@ -2374,10 +2361,10 @@
       <c r="F17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <v>45352</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="13" t="s">
@@ -2396,10 +2383,10 @@
       <c r="F18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <v>45354</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="13" t="s">
@@ -2418,10 +2405,10 @@
       <c r="F19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <v>45355</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="26" spans="1:8">
       <c r="A20" s="13" t="s">
@@ -2443,7 +2430,7 @@
       <c r="G20" s="25">
         <v>45356</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
@@ -2465,27 +2452,27 @@
       <c r="G21" s="25">
         <v>45358</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="26" spans="1:8">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31">
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30">
         <v>45361</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2509,7 +2496,7 @@
       <c r="G23" s="25">
         <v>45362</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2533,7 +2520,7 @@
       <c r="G24" s="25">
         <v>45363</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="21" t="s">
@@ -2569,7 +2556,7 @@
       <c r="G26" s="15">
         <v>45365</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="32" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2593,7 +2580,7 @@
       <c r="G27" s="15">
         <v>45369</v>
       </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="13" t="s">
@@ -2612,10 +2599,10 @@
       <c r="F28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="15">
-        <v>45370</v>
-      </c>
-      <c r="H28" s="33"/>
+      <c r="G28" s="33">
+        <v>45371</v>
+      </c>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" ht="26" spans="1:8">
       <c r="A29" s="13" t="s">
@@ -2637,7 +2624,7 @@
       <c r="G29" s="15">
         <v>45372</v>
       </c>
-      <c r="H29" s="33"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="13" t="s">
@@ -2659,7 +2646,7 @@
       <c r="G30" s="15">
         <v>45376</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" ht="26" spans="1:8">
       <c r="A31" s="13" t="s">
@@ -2681,7 +2668,7 @@
       <c r="G31" s="15">
         <v>45377</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="13" t="s">
@@ -2703,7 +2690,7 @@
       <c r="G32" s="15">
         <v>45379</v>
       </c>
-      <c r="H32" s="33"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="13" t="s">
@@ -2725,7 +2712,7 @@
       <c r="G33" s="15">
         <v>45383</v>
       </c>
-      <c r="H33" s="33"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" ht="26" spans="1:8">
       <c r="A34" s="13" t="s">
@@ -2747,7 +2734,7 @@
       <c r="G34" s="15">
         <v>45384</v>
       </c>
-      <c r="H34" s="33"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="13" t="s">
@@ -2769,7 +2756,7 @@
       <c r="G35" s="15">
         <v>45385</v>
       </c>
-      <c r="H35" s="33"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="13" t="s">
@@ -2791,7 +2778,7 @@
       <c r="G36" s="15">
         <v>45390</v>
       </c>
-      <c r="H36" s="33"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="13" t="s">
@@ -2813,7 +2800,7 @@
       <c r="G37" s="15">
         <v>45391</v>
       </c>
-      <c r="H37" s="33"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" ht="26" spans="1:8">
       <c r="A38" s="13" t="s">
@@ -2835,7 +2822,7 @@
       <c r="G38" s="15">
         <v>45393</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" ht="26" spans="1:8">
       <c r="A39" s="13" t="s">
@@ -2857,7 +2844,7 @@
       <c r="G39" s="15">
         <v>45394</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="13" t="s">
@@ -2879,7 +2866,7 @@
       <c r="G40" s="15">
         <v>45397</v>
       </c>
-      <c r="H40" s="33"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
@@ -2901,7 +2888,7 @@
       <c r="G41" s="15">
         <v>45398</v>
       </c>
-      <c r="H41" s="33"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="21" t="s">

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -239,7 +239,7 @@
     <t>12/03/2024</t>
   </si>
   <si>
-    <t>Martingales Theory – Applications to Option Pricing</t>
+    <t>Martingales Theory - Applications to Option Pricing</t>
   </si>
   <si>
     <t>14/03/2024</t>
@@ -1981,7 +1981,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13" outlineLevelCol="7"/>

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -1981,7 +1981,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2600,7 +2600,7 @@
         <v>42</v>
       </c>
       <c r="G28" s="33">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="H28" s="32"/>
     </row>
@@ -2621,8 +2621,8 @@
       <c r="F29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="15">
-        <v>45372</v>
+      <c r="G29" s="33">
+        <v>45373</v>
       </c>
       <c r="H29" s="32"/>
     </row>

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="23040" windowHeight="9290"/>
   </bookViews>
   <sheets>
     <sheet name="2401 CQF ver.240304" sheetId="3" r:id="rId1"/>
@@ -293,7 +293,7 @@
     <t>Further Numerical Methods</t>
   </si>
   <si>
-    <t>03/04/2024</t>
+    <t>04/04/2024</t>
   </si>
   <si>
     <t>Derivatives Market Practice</t>
@@ -302,7 +302,7 @@
     <t>Dr Espen Huag</t>
   </si>
   <si>
-    <t>04/04/2024</t>
+    <t>05/04/2024</t>
   </si>
   <si>
     <t>Advanced Greeks</t>
@@ -318,7 +318,7 @@
     <t>Implied Volatility</t>
   </si>
   <si>
-    <t>10/04/2024</t>
+    <t>11/04/2024</t>
   </si>
   <si>
     <t>Further Numerical Methods in Monte Carlo &amp; FDM</t>
@@ -1495,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1596,6 +1596,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,8 +1983,8 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -2759,7 +2762,7 @@
       <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="34" t="s">
         <v>91</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -2781,7 +2784,7 @@
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -2825,7 +2828,7 @@
       <c r="H38" s="32"/>
     </row>
     <row r="39" ht="26" spans="1:8">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="34" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -3462,7 +3465,7 @@
       <c r="G68" s="25">
         <v>45460</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="35" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3486,7 +3489,7 @@
       <c r="G69" s="25">
         <v>45461</v>
       </c>
-      <c r="H69" s="34"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="13" t="s">
@@ -3508,7 +3511,7 @@
       <c r="G70" s="25">
         <v>45463</v>
       </c>
-      <c r="H70" s="34"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="13" t="s">
@@ -3530,7 +3533,7 @@
       <c r="G71" s="25">
         <v>45467</v>
       </c>
-      <c r="H71" s="34"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="13" t="s">
@@ -3552,7 +3555,7 @@
       <c r="G72" s="25">
         <v>45468</v>
       </c>
-      <c r="H72" s="34"/>
+      <c r="H72" s="35"/>
     </row>
     <row r="73" ht="26" spans="1:8">
       <c r="A73" s="13" t="s">
@@ -3574,7 +3577,7 @@
       <c r="G73" s="25">
         <v>45470</v>
       </c>
-      <c r="H73" s="34"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="13" t="s">
@@ -3596,7 +3599,7 @@
       <c r="G74" s="25">
         <v>45474</v>
       </c>
-      <c r="H74" s="34"/>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="13" t="s">
@@ -3618,7 +3621,7 @@
       <c r="G75" s="25">
         <v>45475</v>
       </c>
-      <c r="H75" s="34"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="13" t="s">
@@ -3640,7 +3643,7 @@
       <c r="G76" s="25">
         <v>45477</v>
       </c>
-      <c r="H76" s="34"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" ht="26" spans="1:8">
       <c r="A77" s="13" t="s">
@@ -3662,7 +3665,7 @@
       <c r="G77" s="25">
         <v>45481</v>
       </c>
-      <c r="H77" s="34"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="13" t="s">
@@ -3684,7 +3687,7 @@
       <c r="G78" s="25">
         <v>45482</v>
       </c>
-      <c r="H78" s="34"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="13" t="s">
@@ -3706,7 +3709,7 @@
       <c r="G79" s="25">
         <v>45484</v>
       </c>
-      <c r="H79" s="34"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="13" t="s">
@@ -3728,7 +3731,7 @@
       <c r="G80" s="25">
         <v>45485</v>
       </c>
-      <c r="H80" s="34"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="13" t="s">
@@ -3750,7 +3753,7 @@
       <c r="G81" s="25">
         <v>45488</v>
       </c>
-      <c r="H81" s="34"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="13" t="s">
@@ -3772,7 +3775,7 @@
       <c r="G82" s="25">
         <v>45489</v>
       </c>
-      <c r="H82" s="34"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="13" t="s">
@@ -3794,7 +3797,7 @@
       <c r="G83" s="25">
         <v>45491</v>
       </c>
-      <c r="H83" s="34"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" ht="26" spans="1:8">
       <c r="A84" s="13" t="s">
@@ -3816,7 +3819,7 @@
       <c r="G84" s="25">
         <v>45492</v>
       </c>
-      <c r="H84" s="34"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="13" t="s">
@@ -3838,7 +3841,7 @@
       <c r="G85" s="25">
         <v>45495</v>
       </c>
-      <c r="H85" s="34"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" ht="26" spans="1:8">
       <c r="A86" s="13" t="s">
@@ -3860,7 +3863,7 @@
       <c r="G86" s="25">
         <v>45496</v>
       </c>
-      <c r="H86" s="34"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="13" t="s">
@@ -3882,7 +3885,7 @@
       <c r="G87" s="25">
         <v>45498</v>
       </c>
-      <c r="H87" s="34"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="13" t="s">
@@ -3904,7 +3907,7 @@
       <c r="G88" s="25">
         <v>45499</v>
       </c>
-      <c r="H88" s="34"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="13" t="s">
@@ -3926,7 +3929,7 @@
       <c r="G89" s="25">
         <v>45502</v>
       </c>
-      <c r="H89" s="34"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="13" t="s">
@@ -3941,14 +3944,14 @@
       <c r="D90" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="35"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="25">
         <v>45503</v>
       </c>
-      <c r="H90" s="36"/>
+      <c r="H90" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9290"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2401 CQF ver.240304" sheetId="3" r:id="rId1"/>
     <sheet name="public holiday" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -660,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -706,34 +719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -747,14 +732,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,6 +771,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,7 +836,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,55 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,31 +908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,6 +944,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -997,7 +968,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1016,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1047,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,21 +1264,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1294,6 +1292,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,148 +1363,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1613,52 +1626,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1707,7 +1720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6350" y="6350"/>
-          <a:ext cx="7555230" cy="4914265"/>
+          <a:ext cx="7555230" cy="4999990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,11 +1996,11 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.6666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
@@ -2111,7 +2124,7 @@
       </c>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" ht="26" spans="1:8">
+    <row r="6" ht="25.5" spans="1:8">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -2155,7 +2168,7 @@
       </c>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" ht="26" spans="1:8">
+    <row r="8" ht="25.5" spans="1:8">
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
@@ -2199,7 +2212,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" ht="26" spans="1:8">
+    <row r="10" ht="25.5" spans="1:8">
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
@@ -2243,7 +2256,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" ht="26" spans="1:8">
+    <row r="12" ht="25.5" spans="1:8">
       <c r="A12" s="19" t="s">
         <v>37</v>
       </c>
@@ -2347,7 +2360,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" ht="26" spans="1:8">
+    <row r="17" ht="25.5" spans="1:8">
       <c r="A17" s="13" t="s">
         <v>49</v>
       </c>
@@ -2413,7 +2426,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" ht="26" spans="1:8">
+    <row r="20" ht="25.5" spans="1:8">
       <c r="A20" s="13" t="s">
         <v>56</v>
       </c>
@@ -2457,7 +2470,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="26" spans="1:8">
+    <row r="22" s="1" customFormat="1" ht="25.5" spans="1:8">
       <c r="A22" s="27" t="s">
         <v>61</v>
       </c>
@@ -2503,7 +2516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="26" spans="1:8">
+    <row r="24" ht="25.5" spans="1:8">
       <c r="A24" s="19" t="s">
         <v>66</v>
       </c>
@@ -2607,7 +2620,7 @@
       </c>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" ht="26" spans="1:8">
+    <row r="29" ht="25.5" spans="1:8">
       <c r="A29" s="13" t="s">
         <v>76</v>
       </c>
@@ -2651,7 +2664,7 @@
       </c>
       <c r="H30" s="32"/>
     </row>
-    <row r="31" ht="26" spans="1:8">
+    <row r="31" ht="25.5" spans="1:8">
       <c r="A31" s="13" t="s">
         <v>80</v>
       </c>
@@ -2712,12 +2725,12 @@
       <c r="F33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="15">
-        <v>45383</v>
+      <c r="G33" s="33">
+        <v>45385</v>
       </c>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" ht="26" spans="1:8">
+    <row r="34" ht="25.5" spans="1:8">
       <c r="A34" s="13" t="s">
         <v>86</v>
       </c>
@@ -2734,8 +2747,8 @@
       <c r="F34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="15">
-        <v>45384</v>
+      <c r="G34" s="33">
+        <v>45389</v>
       </c>
       <c r="H34" s="32"/>
     </row>
@@ -2756,8 +2769,8 @@
       <c r="F35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="15">
-        <v>45385</v>
+      <c r="G35" s="33">
+        <v>45390</v>
       </c>
       <c r="H35" s="32"/>
     </row>
@@ -2778,8 +2791,8 @@
       <c r="F36" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="15">
-        <v>45390</v>
+      <c r="G36" s="33">
+        <v>45391</v>
       </c>
       <c r="H36" s="32"/>
     </row>
@@ -2800,12 +2813,12 @@
       <c r="F37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="15">
-        <v>45391</v>
+      <c r="G37" s="33">
+        <v>45392</v>
       </c>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" ht="26" spans="1:8">
+    <row r="38" ht="25.5" spans="1:8">
       <c r="A38" s="13" t="s">
         <v>96</v>
       </c>
@@ -2827,7 +2840,7 @@
       </c>
       <c r="H38" s="32"/>
     </row>
-    <row r="39" ht="26" spans="1:8">
+    <row r="39" ht="25.5" spans="1:8">
       <c r="A39" s="34" t="s">
         <v>99</v>
       </c>
@@ -2997,7 +3010,7 @@
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" ht="26" spans="1:8">
+    <row r="47" ht="25.5" spans="1:8">
       <c r="A47" s="13" t="s">
         <v>116</v>
       </c>
@@ -3063,7 +3076,7 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" ht="26" spans="1:8">
+    <row r="50" ht="25.5" spans="1:8">
       <c r="A50" s="13" t="s">
         <v>122</v>
       </c>
@@ -3107,7 +3120,7 @@
       </c>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" ht="26" spans="1:8">
+    <row r="52" ht="25.5" spans="1:8">
       <c r="A52" s="19" t="s">
         <v>127</v>
       </c>
@@ -3211,7 +3224,7 @@
       </c>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" ht="26" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="13" t="s">
         <v>136</v>
       </c>
@@ -3299,7 +3312,7 @@
       </c>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" ht="26" spans="1:8">
+    <row r="61" ht="25.5" spans="1:8">
       <c r="A61" s="13" t="s">
         <v>147</v>
       </c>
@@ -3321,7 +3334,7 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" ht="26" spans="1:8">
+    <row r="62" ht="25.5" spans="1:8">
       <c r="A62" s="13" t="s">
         <v>149</v>
       </c>
@@ -3343,7 +3356,7 @@
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" ht="26" spans="1:8">
+    <row r="63" ht="25.5" spans="1:8">
       <c r="A63" s="13" t="s">
         <v>151</v>
       </c>
@@ -3387,7 +3400,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" ht="26" spans="1:8">
+    <row r="65" ht="25.5" spans="1:8">
       <c r="A65" s="13" t="s">
         <v>154</v>
       </c>
@@ -3557,7 +3570,7 @@
       </c>
       <c r="H72" s="35"/>
     </row>
-    <row r="73" ht="26" spans="1:8">
+    <row r="73" ht="25.5" spans="1:8">
       <c r="A73" s="13" t="s">
         <v>172</v>
       </c>
@@ -3645,7 +3658,7 @@
       </c>
       <c r="H76" s="35"/>
     </row>
-    <row r="77" ht="26" spans="1:8">
+    <row r="77" ht="25.5" spans="1:8">
       <c r="A77" s="13" t="s">
         <v>181</v>
       </c>
@@ -3799,7 +3812,7 @@
       </c>
       <c r="H83" s="35"/>
     </row>
-    <row r="84" ht="26" spans="1:8">
+    <row r="84" ht="25.5" spans="1:8">
       <c r="A84" s="13" t="s">
         <v>198</v>
       </c>
@@ -3843,7 +3856,7 @@
       </c>
       <c r="H85" s="35"/>
     </row>
-    <row r="86" ht="26" spans="1:8">
+    <row r="86" ht="25.5" spans="1:8">
       <c r="A86" s="13" t="s">
         <v>201</v>
       </c>
@@ -3990,7 +4003,7 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>Dr Marc Henrard</t>
-  </si>
-  <si>
-    <t>ANNA</t>
   </si>
   <si>
     <t>13/06/2024</t>
@@ -1508,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1612,6 +1609,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1996,8 +1996,8 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2770,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="33">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="H35" s="32"/>
     </row>
@@ -2792,9 +2792,11 @@
         <v>93</v>
       </c>
       <c r="G36" s="33">
-        <v>45391</v>
-      </c>
-      <c r="H36" s="32"/>
+        <v>45395</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="34" t="s">
@@ -2814,9 +2816,9 @@
         <v>93</v>
       </c>
       <c r="G37" s="33">
-        <v>45392</v>
-      </c>
-      <c r="H37" s="32"/>
+        <v>45396</v>
+      </c>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" ht="25.5" spans="1:8">
       <c r="A38" s="13" t="s">
@@ -2835,10 +2837,10 @@
       <c r="F38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="15">
-        <v>45393</v>
-      </c>
-      <c r="H38" s="32"/>
+      <c r="G38" s="33">
+        <v>45397</v>
+      </c>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" ht="25.5" spans="1:8">
       <c r="A39" s="34" t="s">
@@ -2857,10 +2859,10 @@
       <c r="F39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="15">
-        <v>45394</v>
-      </c>
-      <c r="H39" s="32"/>
+      <c r="G39" s="33">
+        <v>45400</v>
+      </c>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="13" t="s">
@@ -2879,10 +2881,10 @@
       <c r="F40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="15">
-        <v>45397</v>
-      </c>
-      <c r="H40" s="32"/>
+      <c r="G40" s="33">
+        <v>45402</v>
+      </c>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
@@ -2901,10 +2903,10 @@
       <c r="F41" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="15">
-        <v>45398</v>
-      </c>
-      <c r="H41" s="32"/>
+      <c r="G41" s="33">
+        <v>45403</v>
+      </c>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="21" t="s">
@@ -2937,8 +2939,8 @@
       <c r="F43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="25">
-        <v>45400</v>
+      <c r="G43" s="30">
+        <v>45404</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>14</v>
@@ -2961,8 +2963,8 @@
       <c r="F44" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="25">
-        <v>45404</v>
+      <c r="G44" s="30">
+        <v>45407</v>
       </c>
       <c r="H44" s="18"/>
     </row>
@@ -2983,8 +2985,8 @@
       <c r="F45" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="25">
-        <v>45407</v>
+      <c r="G45" s="30">
+        <v>45409</v>
       </c>
       <c r="H45" s="18"/>
     </row>
@@ -3478,19 +3480,19 @@
       <c r="G68" s="25">
         <v>45460</v>
       </c>
-      <c r="H68" s="35" t="s">
-        <v>163</v>
+      <c r="H68" s="36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>12</v>
@@ -3502,17 +3504,17 @@
       <c r="G69" s="25">
         <v>45461</v>
       </c>
-      <c r="H69" s="35"/>
+      <c r="H69" s="36"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>12</v>
@@ -3524,17 +3526,17 @@
       <c r="G70" s="25">
         <v>45463</v>
       </c>
-      <c r="H70" s="35"/>
+      <c r="H70" s="36"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>12</v>
@@ -3546,17 +3548,17 @@
       <c r="G71" s="25">
         <v>45467</v>
       </c>
-      <c r="H71" s="35"/>
+      <c r="H71" s="36"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>12</v>
@@ -3568,17 +3570,17 @@
       <c r="G72" s="25">
         <v>45468</v>
       </c>
-      <c r="H72" s="35"/>
+      <c r="H72" s="36"/>
     </row>
     <row r="73" ht="25.5" spans="1:8">
       <c r="A73" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>24</v>
@@ -3590,61 +3592,61 @@
       <c r="G73" s="25">
         <v>45470</v>
       </c>
-      <c r="H73" s="35"/>
+      <c r="H73" s="36"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G74" s="25">
         <v>45474</v>
       </c>
-      <c r="H74" s="35"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G75" s="25">
         <v>45475</v>
       </c>
-      <c r="H75" s="35"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>12</v>
@@ -3656,17 +3658,17 @@
       <c r="G76" s="25">
         <v>45477</v>
       </c>
-      <c r="H76" s="35"/>
+      <c r="H76" s="36"/>
     </row>
     <row r="77" ht="25.5" spans="1:8">
       <c r="A77" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>34</v>
@@ -3678,20 +3680,20 @@
       <c r="G77" s="25">
         <v>45481</v>
       </c>
-      <c r="H77" s="35"/>
+      <c r="H77" s="36"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="13" t="s">
@@ -3700,17 +3702,17 @@
       <c r="G78" s="25">
         <v>45482</v>
       </c>
-      <c r="H78" s="35"/>
+      <c r="H78" s="36"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>12</v>
@@ -3722,17 +3724,17 @@
       <c r="G79" s="25">
         <v>45484</v>
       </c>
-      <c r="H79" s="35"/>
+      <c r="H79" s="36"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>12</v>
@@ -3744,42 +3746,42 @@
       <c r="G80" s="25">
         <v>45485</v>
       </c>
-      <c r="H80" s="35"/>
+      <c r="H80" s="36"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G81" s="25">
         <v>45488</v>
       </c>
-      <c r="H81" s="35"/>
+      <c r="H81" s="36"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="D82" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="13" t="s">
@@ -3788,39 +3790,39 @@
       <c r="G82" s="25">
         <v>45489</v>
       </c>
-      <c r="H82" s="35"/>
+      <c r="H82" s="36"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G83" s="25">
         <v>45491</v>
       </c>
-      <c r="H83" s="35"/>
+      <c r="H83" s="36"/>
     </row>
     <row r="84" ht="25.5" spans="1:8">
       <c r="A84" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>24</v>
@@ -3832,17 +3834,17 @@
       <c r="G84" s="25">
         <v>45492</v>
       </c>
-      <c r="H84" s="35"/>
+      <c r="H84" s="36"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>12</v>
@@ -3854,17 +3856,17 @@
       <c r="G85" s="25">
         <v>45495</v>
       </c>
-      <c r="H85" s="35"/>
+      <c r="H85" s="36"/>
     </row>
     <row r="86" ht="25.5" spans="1:8">
       <c r="A86" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>24</v>
@@ -3876,17 +3878,17 @@
       <c r="G86" s="25">
         <v>45496</v>
       </c>
-      <c r="H86" s="35"/>
+      <c r="H86" s="36"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>34</v>
@@ -3898,17 +3900,17 @@
       <c r="G87" s="25">
         <v>45498</v>
       </c>
-      <c r="H87" s="35"/>
+      <c r="H87" s="36"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>34</v>
@@ -3920,17 +3922,17 @@
       <c r="G88" s="25">
         <v>45499</v>
       </c>
-      <c r="H88" s="35"/>
+      <c r="H88" s="36"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>34</v>
@@ -3942,32 +3944,32 @@
       <c r="G89" s="25">
         <v>45502</v>
       </c>
-      <c r="H89" s="35"/>
+      <c r="H89" s="36"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="36"/>
+      <c r="E90" s="37"/>
       <c r="F90" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="25">
         <v>45503</v>
       </c>
-      <c r="H90" s="37"/>
+      <c r="H90" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A25:H25"/>
@@ -3983,7 +3985,8 @@
     <mergeCell ref="H4:H12"/>
     <mergeCell ref="H14:H21"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H26:H41"/>
+    <mergeCell ref="H26:H35"/>
+    <mergeCell ref="H36:H41"/>
     <mergeCell ref="H43:H52"/>
     <mergeCell ref="H54:H66"/>
     <mergeCell ref="H68:H90"/>

--- a/source/CQF_January_2024_Schedule.xlsx
+++ b/source/CQF_January_2024_Schedule.xlsx
@@ -4,26 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="2401 CQF ver.240304" sheetId="3" r:id="rId1"/>
     <sheet name="public holiday" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -670,7 +657,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -716,6 +703,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -729,6 +744,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,21 +791,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,28 +841,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,13 +868,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,19 +934,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,18 +982,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -965,31 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,19 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,12 +1037,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,6 +1248,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1289,21 +1291,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,148 +1347,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1626,52 +1613,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1720,7 +1707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6350" y="6350"/>
-          <a:ext cx="7555230" cy="4999990"/>
+          <a:ext cx="7555230" cy="4845685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1996,11 +1983,11 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.6666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
@@ -2124,7 +2111,7 @@
       </c>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" ht="25.5" spans="1:8">
+    <row r="6" ht="27.6" spans="1:8">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2155,7 @@
       </c>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" ht="25.5" spans="1:8">
+    <row r="8" ht="27.6" spans="1:8">
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
@@ -2212,7 +2199,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" ht="25.5" spans="1:8">
+    <row r="10" ht="27.6" spans="1:8">
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
@@ -2256,7 +2243,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" ht="25.5" spans="1:8">
+    <row r="12" ht="27.6" spans="1:8">
       <c r="A12" s="19" t="s">
         <v>37</v>
       </c>
@@ -2360,7 +2347,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" ht="25.5" spans="1:8">
+    <row r="17" ht="27.6" spans="1:8">
       <c r="A17" s="13" t="s">
         <v>49</v>
       </c>
@@ -2426,7 +2413,7 @@
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" ht="25.5" spans="1:8">
+    <row r="20" ht="27.6" spans="1:8">
       <c r="A20" s="13" t="s">
         <v>56</v>
       </c>
@@ -2470,7 +2457,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="25.5" spans="1:8">
+    <row r="22" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A22" s="27" t="s">
         <v>61</v>
       </c>
@@ -2516,7 +2503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="25.5" spans="1:8">
+    <row r="24" ht="27.6" spans="1:8">
       <c r="A24" s="19" t="s">
         <v>66</v>
       </c>
@@ -2620,7 +2607,7 @@
       </c>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" ht="25.5" spans="1:8">
+    <row r="29" ht="27.6" spans="1:8">
       <c r="A29" s="13" t="s">
         <v>76</v>
       </c>
@@ -2664,7 +2651,7 @@
       </c>
       <c r="H30" s="32"/>
     </row>
-    <row r="31" ht="25.5" spans="1:8">
+    <row r="31" ht="27.6" spans="1:8">
       <c r="A31" s="13" t="s">
         <v>80</v>
       </c>
@@ -2730,7 +2717,7 @@
       </c>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" ht="25.5" spans="1:8">
+    <row r="34" ht="27.6" spans="1:8">
       <c r="A34" s="13" t="s">
         <v>86</v>
       </c>
@@ -2820,7 +2807,7 @@
       </c>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" ht="25.5" spans="1:8">
+    <row r="38" ht="27.6" spans="1:8">
       <c r="A38" s="13" t="s">
         <v>96</v>
       </c>
@@ -2842,7 +2829,7 @@
       </c>
       <c r="H38" s="35"/>
     </row>
-    <row r="39" ht="25.5" spans="1:8">
+    <row r="39" ht="27.6" spans="1:8">
       <c r="A39" s="34" t="s">
         <v>99</v>
       </c>
@@ -3012,7 +2999,7 @@
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" ht="25.5" spans="1:8">
+    <row r="47" ht="27.6" spans="1:8">
       <c r="A47" s="13" t="s">
         <v>116</v>
       </c>
@@ -3078,7 +3065,7 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" ht="25.5" spans="1:8">
+    <row r="50" ht="27.6" spans="1:8">
       <c r="A50" s="13" t="s">
         <v>122</v>
       </c>
@@ -3122,7 +3109,7 @@
       </c>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" ht="25.5" spans="1:8">
+    <row r="52" ht="27.6" spans="1:8">
       <c r="A52" s="19" t="s">
         <v>127</v>
       </c>
@@ -3175,8 +3162,8 @@
       <c r="F54" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="25">
-        <v>45428</v>
+      <c r="G54" s="30">
+        <v>45436</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>17</v>
@@ -3199,8 +3186,8 @@
       <c r="F55" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="25">
-        <v>45430</v>
+      <c r="G55" s="30">
+        <v>45438</v>
       </c>
       <c r="H55" s="18"/>
     </row>
@@ -3221,12 +3208,12 @@
       <c r="F56" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="25">
-        <v>45431</v>
+      <c r="G56" s="30">
+        <v>45440</v>
       </c>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" ht="27.6" spans="1:8">
       <c r="A57" s="13" t="s">
         <v>136</v>
       </c>
@@ -3243,8 +3230,8 @@
       <c r="F57" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="25">
-        <v>45436</v>
+      <c r="G57" s="30">
+        <v>45442</v>
       </c>
       <c r="H57" s="18"/>
     </row>
@@ -3265,8 +3252,8 @@
       <c r="F58" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G58" s="25">
-        <v>45437</v>
+      <c r="G58" s="30">
+        <v>45445</v>
       </c>
       <c r="H58" s="18"/>
     </row>
@@ -3287,8 +3274,8 @@
       <c r="F59" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G59" s="25">
-        <v>45439</v>
+      <c r="G59" s="30">
+        <v>45447</v>
       </c>
       <c r="H59" s="18"/>
     </row>
@@ -3309,12 +3296,12 @@
       <c r="F60" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G60" s="25">
-        <v>45442</v>
+      <c r="G60" s="30">
+        <v>45449</v>
       </c>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" ht="25.5" spans="1:8">
+    <row r="61" ht="27.6" spans="1:8">
       <c r="A61" s="13" t="s">
         <v>147</v>
       </c>
@@ -3331,12 +3318,12 @@
       <c r="F61" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="25">
-        <v>45443</v>
+      <c r="G61" s="30">
+        <v>45451</v>
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" ht="25.5" spans="1:8">
+    <row r="62" ht="27.6" spans="1:8">
       <c r="A62" s="13" t="s">
         <v>149</v>
       </c>
@@ -3353,12 +3340,12 @@
       <c r="F62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="25">
-        <v>45445</v>
+      <c r="G62" s="30">
+        <v>45453</v>
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" ht="25.5" spans="1:8">
+    <row r="63" ht="27.6" spans="1:8">
       <c r="A63" s="13" t="s">
         <v>151</v>
       </c>
@@ -3375,8 +3362,8 @@
       <c r="F63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="25">
-        <v>45448</v>
+      <c r="G63" s="30">
+        <v>45455</v>
       </c>
       <c r="H63" s="18"/>
     </row>
@@ -3397,12 +3384,12 @@
       <c r="F64" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G64" s="25">
-        <v>45450</v>
+      <c r="G64" s="30">
+        <v>45456</v>
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" ht="25.5" spans="1:8">
+    <row r="65" ht="27.6" spans="1:8">
       <c r="A65" s="13" t="s">
         <v>154</v>
       </c>
@@ -3419,8 +3406,8 @@
       <c r="F65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="25">
-        <v>45452</v>
+      <c r="G65" s="30">
+        <v>45458</v>
       </c>
       <c r="H65" s="18"/>
     </row>
@@ -3441,8 +3428,8 @@
       <c r="F66" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G66" s="25">
-        <v>45456</v>
+      <c r="G66" s="30">
+        <v>45459</v>
       </c>
       <c r="H66" s="18"/>
     </row>
@@ -3572,7 +3559,7 @@
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" ht="25.5" spans="1:8">
+    <row r="73" ht="27.6" spans="1:8">
       <c r="A73" s="13" t="s">
         <v>171</v>
       </c>
@@ -3660,7 +3647,7 @@
       </c>
       <c r="H76" s="36"/>
     </row>
-    <row r="77" ht="25.5" spans="1:8">
+    <row r="77" ht="27.6" spans="1:8">
       <c r="A77" s="13" t="s">
         <v>180</v>
       </c>
@@ -3814,7 +3801,7 @@
       </c>
       <c r="H83" s="36"/>
     </row>
-    <row r="84" ht="25.5" spans="1:8">
+    <row r="84" ht="27.6" spans="1:8">
       <c r="A84" s="13" t="s">
         <v>197</v>
       </c>
@@ -3858,7 +3845,7 @@
       </c>
       <c r="H85" s="36"/>
     </row>
-    <row r="86" ht="25.5" spans="1:8">
+    <row r="86" ht="27.6" spans="1:8">
       <c r="A86" s="13" t="s">
         <v>200</v>
       </c>
@@ -4006,7 +3993,7 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
